--- a/doc/SpecsArchCySec.xlsx
+++ b/doc/SpecsArchCySec.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="96">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -162,16 +162,19 @@
     <t xml:space="preserve">Each button shall have 2 states, PRESSED or NOT PRESSED</t>
   </si>
   <si>
-    <t xml:space="preserve">At startup, the buttons shall be initialized with an INIT_STATE</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.1.5</t>
   </si>
   <si>
+    <t xml:space="preserve">At startup, the buttons shall be initialized with a UNPRESSED state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">The debounce of the buttons stable state shall be 40ms.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.6</t>
+    <t xml:space="preserve">3.1.7</t>
   </si>
   <si>
     <t xml:space="preserve">The button module shall return always the last stable state</t>
@@ -317,7 +320,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,12 +371,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -611,7 +608,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,9 +744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2443680</xdr:colOff>
+      <xdr:colOff>2443320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2862360</xdr:rowOff>
+      <xdr:rowOff>2862000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -763,7 +760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="601920" y="247680"/>
-          <a:ext cx="5303880" cy="2862360"/>
+          <a:ext cx="5303520" cy="2862000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,9 +781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8268480</xdr:colOff>
+      <xdr:colOff>8268120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4758120</xdr:rowOff>
+      <xdr:rowOff>4757760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -800,7 +797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="601920" y="247680"/>
-          <a:ext cx="11128680" cy="4758120"/>
+          <a:ext cx="11128320" cy="4757760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,9 +818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1277640</xdr:colOff>
+      <xdr:colOff>1277280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>3122280</xdr:rowOff>
+      <xdr:rowOff>3121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -837,7 +834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3462120" y="5372280"/>
-          <a:ext cx="1277640" cy="3303000"/>
+          <a:ext cx="1277280" cy="3302640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,9 +855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1310040</xdr:colOff>
+      <xdr:colOff>1309680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3205440</xdr:rowOff>
+      <xdr:rowOff>3205080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -874,7 +871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3462120" y="10247040"/>
-          <a:ext cx="1310040" cy="3386520"/>
+          <a:ext cx="1309680" cy="3386160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1261440</xdr:colOff>
+      <xdr:colOff>1261080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>3079800</xdr:rowOff>
+      <xdr:rowOff>3079440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -911,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3462120" y="15180840"/>
-          <a:ext cx="1261440" cy="3260880"/>
+          <a:ext cx="1261080" cy="3260520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,9 +929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3930120</xdr:colOff>
+      <xdr:colOff>3929760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>2219040</xdr:rowOff>
+      <xdr:rowOff>2218680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -948,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3462120" y="20171880"/>
-          <a:ext cx="3930120" cy="2400120"/>
+          <a:ext cx="3929760" cy="2399760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1164,8 +1161,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1581,7 +1578,9 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
       </c>
@@ -1612,7 +1611,9 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="17" t="n">
+        <v>13</v>
+      </c>
       <c r="B14" s="18" t="s">
         <v>44</v>
       </c>
@@ -1643,10 +1644,14 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>13</v>
@@ -1672,12 +1677,14 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="17" t="n">
+        <v>15</v>
+      </c>
       <c r="B16" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>13</v>
@@ -1703,12 +1710,14 @@
       <c r="K16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="17" t="n">
+        <v>16</v>
+      </c>
       <c r="B17" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>13</v>
@@ -1735,13 +1744,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>13</v>
@@ -1768,13 +1777,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>13</v>
@@ -1801,13 +1810,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="0" t="s">
         <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>13</v>
@@ -1834,13 +1843,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>13</v>
@@ -1867,13 +1876,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>13</v>
@@ -1892,13 +1901,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>13</v>
@@ -1917,7 +1926,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="21"/>
@@ -1932,7 +1941,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="21"/>
@@ -2015,7 +2024,7 @@
     <row r="1" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="27"/>
     </row>
@@ -2025,7 +2034,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="27"/>
     </row>
@@ -2034,12 +2043,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="28"/>
     </row>
@@ -2049,22 +2058,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="31"/>
       <c r="C10" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,21 +2082,21 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="31"/>
       <c r="C13" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="27"/>
     </row>
@@ -2096,12 +2105,12 @@
         <v>2</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="28"/>
     </row>
@@ -2111,22 +2120,22 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="31"/>
       <c r="C19" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="31"/>
       <c r="C20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,21 +2144,21 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="31"/>
       <c r="C23" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="27"/>
     </row>
@@ -2158,12 +2167,12 @@
         <v>2</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="28"/>
     </row>
@@ -2173,22 +2182,22 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="31"/>
       <c r="C29" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="31"/>
       <c r="C30" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,10 +2206,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +2218,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="27"/>
     </row>
@@ -2218,12 +2227,12 @@
         <v>2</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="28"/>
     </row>
@@ -2233,16 +2242,16 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="31"/>
       <c r="C39" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,7 +2264,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="33"/>
     </row>
@@ -2324,10 +2333,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -2355,12 +2364,12 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>18</v>
